--- a/Client/Assets/Excel/BattleMonster.xlsx
+++ b/Client/Assets/Excel/BattleMonster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557C691-D4D0-485A-AC2C-DAE929AFBF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6607F0E0-D3C2-4FCC-B616-9752BB803063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
   <si>
     <t>Factor Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -523,6 +523,54 @@
   </si>
   <si>
     <t>주사위 눈 10이 나올 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotNum1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotNum2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotNum3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotNum4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotNum5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotNum6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 스킬 슬롯 정의값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 스킬 슬롯 정의값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 스킬 슬롯 정의값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 스킬 슬롯 정의값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 스킬 슬롯 정의값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6번 스킬 슬롯 정의값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,13 +864,61 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1140,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ28" sqref="AQ28"/>
+    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1162,27 +1258,33 @@
     <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
     <col min="14" max="24" width="15.625" customWidth="1"/>
     <col min="25" max="25" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.625" style="31" customWidth="1"/>
+    <col min="28" max="28" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.625" style="31" customWidth="1"/>
+    <col min="32" max="32" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.875" style="31" customWidth="1"/>
     <col min="36" max="36" width="17.875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.625" style="31" customWidth="1"/>
+    <col min="40" max="40" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.875" style="31" customWidth="1"/>
+    <col min="44" max="44" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.875" style="31" customWidth="1"/>
+    <col min="48" max="48" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.875" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="D1" s="1"/>
@@ -1206,19 +1308,25 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:43" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:49" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C2" s="19"/>
       <c r="Z2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AI2" s="7"/>
+      <c r="AA2" s="32"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="32"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="32"/>
       <c r="AL2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AQ2" s="30"/>
-    </row>
-    <row r="3" spans="1:43" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="AM2" s="32"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="32"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="32"/>
+      <c r="AW2" s="30"/>
+    </row>
+    <row r="3" spans="1:49" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1292,62 +1400,80 @@
       <c r="Y3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AB3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AC3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AD3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="26" t="s">
+      <c r="AF3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AG3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AH3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="26" t="s">
+      <c r="AJ3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="26" t="s">
+      <c r="AK3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AI3" s="26" t="s">
+      <c r="AL3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="AN3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AO3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AL3" s="26" t="s">
+      <c r="AP3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AM3" s="26" t="s">
+      <c r="AR3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="26" t="s">
+      <c r="AS3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AO3" s="26" t="s">
+      <c r="AT3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AP3" s="26" t="s">
+      <c r="AV3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>7010001</v>
       </c>
@@ -1356,7 +1482,7 @@
         <v>7011001</v>
       </c>
       <c r="C4" s="21" t="str">
-        <f>"잡봅 1 /"&amp;" 스킬 확률 총합 = "&amp;AA4+AD4+AG4+AJ4+AM4+AP4&amp;
+        <f>"잡봅 1 /"&amp;" 스킬 확률 총합 = "&amp;AB4+AF4+AJ4+AN4+AR4+AV4&amp;
 CHAR(10)&amp;"주사위 눈 확률 총 합 = "&amp; SUM(N4:Y4)</f>
         <v>잡봅 1 / 스킬 확률 총합 = 1
 주사위 눈 확률 총 합 = 1</v>
@@ -1425,78 +1551,126 @@
       <c r="Y4" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="28">
         <v>3111002</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AB4" s="27">
         <v>0.4</v>
       </c>
-      <c r="AB4" s="27">
-        <f>AA4/3</f>
+      <c r="AC4" s="27">
+        <f>AB4/3</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AD4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="28">
         <v>3111003</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AF4" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE4" s="27">
-        <f>AD4/3</f>
+      <c r="AG4" s="27">
+        <f>AF4/3</f>
         <v>2.3333333333333334E-2</v>
       </c>
-      <c r="AF4" s="28">
+      <c r="AH4" s="4">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="28">
         <v>0</v>
       </c>
-      <c r="AG4" s="27">
+      <c r="AJ4" s="27">
         <v>0.1</v>
-      </c>
-      <c r="AH4" s="27">
-        <f>AG4/3</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="AI4" s="28">
-        <v>3111004</v>
-      </c>
-      <c r="AJ4" s="27">
-        <v>0.3</v>
       </c>
       <c r="AK4" s="27">
         <f>AJ4/3</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="28">
+        <v>3111004</v>
+      </c>
+      <c r="AN4" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="AO4" s="27">
+        <f>AN4/3</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AL4" s="28">
+      <c r="AP4" s="4">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="28">
         <v>0</v>
       </c>
-      <c r="AM4" s="27">
+      <c r="AR4" s="27">
         <v>0.05</v>
       </c>
-      <c r="AN4" s="27">
-        <f>AM4/3</f>
+      <c r="AS4" s="27">
+        <f>AR4/3</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="AO4" s="28">
+      <c r="AT4" s="4">
+        <v>6</v>
+      </c>
+      <c r="AU4" s="28">
         <v>3111005</v>
       </c>
-      <c r="AP4" s="27">
+      <c r="AV4" s="27">
         <v>0.08</v>
       </c>
-      <c r="AQ4" s="9">
-        <f>AP4/3</f>
+      <c r="AW4" s="9">
+        <f>AV4/3</f>
         <v>2.6666666666666668E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="N5" s="10"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="V6" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:AQ4">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="A4:Y4 AA4:AC4 AE4:AG4 AI4:AK4 AM4:AO4 AQ4:AS4 AU4:AW4">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD4">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1506,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20F848-A3FA-48AA-90E8-936303A059B5}">
-  <dimension ref="A4:G47"/>
+  <dimension ref="A4:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1890,37 +2064,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>93</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E29" s="16"/>
       <c r="F29" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>130</v>
@@ -1929,247 +2101,325 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>100</v>
+        <v>117</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>105</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>102</v>
+        <v>121</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
+      <c r="B47" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
